--- a/src/datafiles/AB_Login_Data.xlsx
+++ b/src/datafiles/AB_Login_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48F730D-0011-4B18-B9E0-FAE26A890265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE064B87-1644-4DFA-B0E0-C2E20E4FC4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Pass</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>1234</t>
+  </si>
+  <si>
+    <t>660281</t>
   </si>
   <si>
     <t>CA1090</t>
@@ -420,45 +423,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="L3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
     </row>
